--- a/app/visualizer-diagram/data/data.xlsx
+++ b/app/visualizer-diagram/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Company-Structure-Visualizer\app\excel-loader\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Company-Structure-Visualizer\app\visualizer-diagram\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8CA53-5F95-4334-9EC5-EB1760C60559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3211113-647A-4247-8ED2-E83A4393B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15435" yWindow="6240" windowWidth="28800" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="11865" windowWidth="28800" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DISPLAY" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Elemente</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Typ</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Abteilung</t>
-  </si>
-  <si>
     <t>Relationen</t>
   </si>
   <si>
@@ -51,19 +45,61 @@
     <t>Blum</t>
   </si>
   <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>BIC</t>
-  </si>
-  <si>
-    <t>Peter, Test</t>
+    <t>person</t>
+  </si>
+  <si>
+    <t>abteilung</t>
+  </si>
+  <si>
+    <t>projekt</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Technik</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Jürgen</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Gabi</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Udo</t>
+  </si>
+  <si>
+    <t>BIC steuerteam</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>Lerngruppe</t>
+  </si>
+  <si>
+    <t>lerngruppe</t>
   </si>
 </sst>
 </file>
@@ -136,13 +172,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,90 +459,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
+    <col min="1" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
